--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\debra\Dropbox\GeekMomProjects\ArticulatedPCB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\debra\Dropbox\Documents\GitHub\ArticulatedPCBs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2848ECA1-2486-4B3D-8E15-9AC027E09E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CEAF8DE-04E1-4AB9-9FA9-2C11E7043242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10170" yWindow="2655" windowWidth="16695" windowHeight="13335" xr2:uid="{421486F9-22EC-4FE7-B292-C13435E23E73}"/>
+    <workbookView xWindow="10515" yWindow="3000" windowWidth="16695" windowHeight="13335" xr2:uid="{421486F9-22EC-4FE7-B292-C13435E23E73}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
   <si>
     <t>PCB Components</t>
   </si>
@@ -157,13 +157,37 @@
   </si>
   <si>
     <t>Pressure Contacts</t>
+  </si>
+  <si>
+    <t>Board to Board connector (plug)</t>
+  </si>
+  <si>
+    <t>Board to Board connector (receptacle)</t>
+  </si>
+  <si>
+    <t>DF23C-10DP-0.5V(92)</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/hirose-electric-co-ltd/DF23C-10DP-0.5V(92)/3830805</t>
+  </si>
+  <si>
+    <t>https://www.hirose.com/product/download/?distributor=digikey&amp;type=specSheet&amp;lang=en&amp;num=DF23C-10DP-0.5V(92)</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/hirose-electric-co-ltd/DF23C-10DS-0.5V(51)/5155992</t>
+  </si>
+  <si>
+    <t>https://www.hirose.com/product/download/?distributor=digikey&amp;type=specSheet&amp;lang=en&amp;num=DF23C-10DS-0.5V(51)</t>
+  </si>
+  <si>
+    <t>DF23C-10DS-0.5V(51)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,6 +222,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -220,7 +249,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -235,6 +264,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -550,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B866CB2-420D-49FC-A79A-A6CBDA605C21}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,36 +727,70 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="9" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B15" t="s">
         <v>9</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E15" t="s">
         <v>10</v>
       </c>
     </row>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\debra\Dropbox\Documents\GitHub\ArticulatedPCBs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CEAF8DE-04E1-4AB9-9FA9-2C11E7043242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6366BF-A554-476C-8DA5-CCE7B0DC6D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10515" yWindow="3000" windowWidth="16695" windowHeight="13335" xr2:uid="{421486F9-22EC-4FE7-B292-C13435E23E73}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
   <si>
     <t>PCB Components</t>
   </si>
@@ -181,6 +181,15 @@
   </si>
   <si>
     <t>DF23C-10DS-0.5V(51)</t>
+  </si>
+  <si>
+    <t>Materials</t>
+  </si>
+  <si>
+    <t>1/16" (1.6mm) acrylic for laser-cut buffer layer</t>
+  </si>
+  <si>
+    <t>1 buffer per link</t>
   </si>
 </sst>
 </file>
@@ -583,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B866CB2-420D-49FC-A79A-A6CBDA605C21}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,6 +803,19 @@
         <v>10</v>
       </c>
     </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" xr:uid="{3AEB1955-C3F3-46B2-92C7-95EFF2A1036A}"/>
